--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>
